--- a/bots/crawl_ch/output/electronics_2022-08-09.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-09.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1808,50 +1808,48 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1861,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1876,29 +1874,29 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1907,10 +1905,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1949,53 +1947,55 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2455,50 +2455,48 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2508,7 +2506,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2523,29 +2521,29 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2553,15 +2551,13 @@
           <t>4ST</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2591,58 +2587,60 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2652,7 +2650,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2662,60 +2660,60 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.98/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2725,7 +2723,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2735,34 +2733,34 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2806,141 +2804,141 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2.98/1ST</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3013,48 +3011,50 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3281,133 +3281,133 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1.87/1ST</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3586,253 +3586,253 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>99.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4162,29 +4162,29 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4228,34 +4228,34 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -4269,12 +4269,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4802,29 +4802,29 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4838,12 +4838,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4868,29 +4868,29 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4904,17 +4904,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4934,102 +4934,120 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>699.00</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 699.00 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>699.00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -5038,49 +5056,51 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 19.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5089,34 +5109,34 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -5131,7 +5151,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5145,29 +5165,29 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -5177,12 +5197,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5191,34 +5211,34 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5228,12 +5248,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5242,34 +5262,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5279,12 +5299,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5293,46 +5313,44 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5351,37 +5369,37 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5390,7 +5408,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5399,40 +5417,42 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5441,7 +5461,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5455,29 +5475,29 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -5506,29 +5526,29 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5538,12 +5558,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5552,34 +5572,34 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5594,7 +5614,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5608,29 +5628,29 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -5640,12 +5660,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5659,37 +5679,35 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5698,7 +5716,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5712,35 +5730,37 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5749,7 +5769,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5763,29 +5783,29 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -5800,7 +5820,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5814,37 +5834,35 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5853,7 +5871,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5867,105 +5885,87 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5974,17 +5974,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6004,34 +6004,34 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6075,39 +6075,39 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6146,39 +6146,39 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -6192,12 +6192,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6217,39 +6217,39 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3591272</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6288,39 +6288,39 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -6334,12 +6334,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6364,12 +6364,12 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:05</t>
+          <t>2022-08-09 20:57:16</t>
         </is>
       </c>
     </row>
